--- a/jvvc_term_paper_intel.xlsx
+++ b/jvvc_term_paper_intel.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="657">
   <si>
     <t>doi</t>
   </si>
@@ -1022,6 +1022,9 @@
     <t>defense</t>
   </si>
   <si>
+    <t>defense_pt_br</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
@@ -1047,6 +1050,9 @@
   </si>
   <si>
     <t>Brute-Force Adversarial Training</t>
+  </si>
+  <si>
+    <t>Treinamento Adversarial</t>
   </si>
   <si>
     <t>Modified Training / Input</t>
@@ -1113,6 +1119,9 @@
     <t>Data Compression as a Defense</t>
   </si>
   <si>
+    <t>Compressão de Dados como Defesa</t>
+  </si>
+  <si>
     <t>(LIU et al., 2023), (AKHTAR et al., 2021), (BADJIE et al., 2024), (LIANG et al., 2022), (ZHOU et al., 2022), (KHAMAISEH et al., 2022), (ZHANG et al., 2021), (BAJAJ et al., 2024), (BHAMBRI et al., 2020),  (BOUNTAKAS et al., 2023), (LU et al., 2022), (LIU et al., 2024), (COSTA et al., 2024), (MUSTAFA et al., 2020), (QIÚ et al., 2019), (SACHDEVA et al., 2024), (AKHTAR et al., 2018)</t>
   </si>
   <si>
@@ -1261,6 +1270,9 @@
     <t>Defensive Distillation</t>
   </si>
   <si>
+    <t>Distilação Defensiva</t>
+  </si>
+  <si>
     <t>Modified Networks</t>
   </si>
   <si>
@@ -1324,6 +1336,9 @@
   </si>
   <si>
     <t>Randomization</t>
+  </si>
+  <si>
+    <t>Aleatorização</t>
   </si>
   <si>
     <t>(LIU et al., 2023), (AKHTAR et al., 2021), (BADJIE et al., 2024), (LIANG et al., 2022), (ZHOU et al., 2022), (ZHANG et al., 2021), (BAJAJ et al., 2024), (BHAMBRI et al., 2020), (BOUNTAKAS et al., 2023), (LU et al., 2022), (COSTA et al., 2024), (MUSTAFA et al., 2020), (QIÚ et al., 2019), (AKHTAR et al., 2018)</t>
@@ -1491,6 +1506,9 @@
   </si>
   <si>
     <t>Gradient Regularization / Masking</t>
+  </si>
+  <si>
+    <t>Regularização / Máscara do Gradiente</t>
   </si>
   <si>
     <t>(LIU et al., 2023), (BADJIE et al., 2024), (LIANG et al., 2022), (KHAMAISEH et al., 2022), (ZHANG et al., 2021), (BAJAJ et al., 2024), (LIU et al., 2024), (COSTA et al., 2024), (QIÚ et al., 2019), (AKHTAR et al., 2018)</t>
@@ -1599,6 +1617,9 @@
     <t>Parseval Networks</t>
   </si>
   <si>
+    <t>Redes de Parseval</t>
+  </si>
+  <si>
     <t>(LIU et al., 2023), (KHAMAISEH et al., 2022), (ZHANG et al., 2021), (BAJAJ et al., 2024), (LU et al., 2022), (LIU et al., 2024), (MUSTAFA et al., 2020), (QIÚ et al., 2019), (AKHTAR et al., 2018)</t>
   </si>
   <si>
@@ -1624,12 +1645,18 @@
     <t>Guided Denoiser</t>
   </si>
   <si>
+    <t>Denoiser Guiado</t>
+  </si>
+  <si>
     <t>(BADJIE et al., 2024), (LIANG et al., 2022), (ZHANG et al., 2021), (BAJAJ et al., 2024), (BHAMBRI et al., 2020),  (BOUNTAKAS et al., 2023), (LIU et al., 2024), (COSTA et al., 2024), (QIÚ et al., 2019)</t>
   </si>
   <si>
     <t>Randomized Smoothing</t>
   </si>
   <si>
+    <t>Suavização Aleatória</t>
+  </si>
+  <si>
     <t>(LIU et al., 2023), (AKHTAR et al., 2021), (ZHANG et al., 2021), (LI et al., 2022), (BHAMBRI et al., 2020),  (BOUNTAKAS et al., 2023), (LIU et al., 2024), (COSTA et al., 2024), (KARUNANAYAKE et al., 2025)</t>
   </si>
   <si>
@@ -1642,10 +1669,16 @@
     <t>Feature Denoising</t>
   </si>
   <si>
+    <t>Denoising de Características</t>
+  </si>
+  <si>
     <t>(AKHTAR et al., 2021), (ZHANG et al., 2021), (BHAMBRI et al., 2020), (BOUNTAKAS et al., 2023), (LIU et al., 2024), (COSTA et al., 2024), (MUSTAFA et al., 2020)</t>
   </si>
   <si>
     <t>Deep Contractive Networks</t>
+  </si>
+  <si>
+    <t>Redes Neurais Contrativas Profundas (Deep Contractive Networks)</t>
   </si>
   <si>
     <t>(LIU et al., 2023), (KHAMAISEH et al., 2022), (BAJAJ et al., 2024), (LU et al., 2022), (QIÚ et al., 2019), (AKHTAR et al., 2018)</t>
@@ -1777,6 +1810,9 @@
     <t>Foveation Based Defense</t>
   </si>
   <si>
+    <t>Defesa Baseada em Foveação</t>
+  </si>
+  <si>
     <t>(ZHANG et al., 2021), (LIU et al., 2023), (LIU et al., 2024), (MUSTAFA et al., 2020), (AKHTAR et al., 2018)</t>
   </si>
   <si>
@@ -1820,6 +1856,9 @@
     <t>Defense Against Universal Perturbartions (PRN)</t>
   </si>
   <si>
+    <t>Defesa Contra Perturbações Universais (PRN)</t>
+  </si>
+  <si>
     <t>Defense Against Universal Perturbations</t>
   </si>
   <si>
@@ -1879,6 +1918,9 @@
   </si>
   <si>
     <t>Detector Subnetwork</t>
+  </si>
+  <si>
+    <t>Sub-rede de Detecção</t>
   </si>
   <si>
     <t>(KHAMAISEH et al., 2022), (AKHTAR et al., 2018)</t>
@@ -1948,25 +1990,40 @@
     <t>Ensemble Classifiers</t>
   </si>
   <si>
+    <t>Classificadores em Ensemble</t>
+  </si>
+  <si>
     <t>(BADJIE et al., 2024), (BAJAJ et al., 2024)</t>
   </si>
   <si>
     <t>Convex Adversarial Polytope</t>
   </si>
   <si>
+    <t>Poliedro Adversarial Convexo</t>
+  </si>
+  <si>
     <t>(BHAMBRI et al., 2020), (LIU et al., 2024)</t>
   </si>
   <si>
     <t>Biologically Inspired Protection</t>
   </si>
   <si>
+    <t>Proteção Bioinspirada</t>
+  </si>
+  <si>
     <t>PNI</t>
   </si>
   <si>
     <t>Hidden Space Restriction</t>
   </si>
   <si>
+    <t>Restrição no Espaço Oculto</t>
+  </si>
+  <si>
     <t>Trapdoored Model</t>
+  </si>
+  <si>
+    <t>Modelo com Armadilha</t>
   </si>
   <si>
     <r>
@@ -2025,6 +2082,9 @@
   </si>
   <si>
     <t>Image Super-Resolution</t>
+  </si>
+  <si>
+    <t>Super-Resolução de Imagem</t>
   </si>
   <si>
     <r>
@@ -8060,58 +8120,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8">
@@ -8154,12 +8214,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="32.5"/>
-    <col customWidth="1" min="2" max="2" width="25.25"/>
-    <col customWidth="1" min="3" max="3" width="18.63"/>
-    <col customWidth="1" min="5" max="6" width="18.63"/>
-    <col customWidth="1" min="7" max="7" width="23.75"/>
-    <col customWidth="1" min="8" max="8" width="37.75"/>
-    <col customWidth="1" min="9" max="9" width="68.88"/>
+    <col customWidth="1" min="2" max="3" width="25.25"/>
+    <col customWidth="1" min="4" max="4" width="18.63"/>
+    <col customWidth="1" min="6" max="7" width="18.63"/>
+    <col customWidth="1" min="8" max="8" width="23.75"/>
+    <col customWidth="1" min="9" max="9" width="37.75"/>
+    <col customWidth="1" min="10" max="10" width="68.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8190,913 +8250,1015 @@
       <c r="I1" s="24" t="s">
         <v>290</v>
       </c>
+      <c r="J1" s="24" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F2" s="2">
-        <f t="shared" ref="F2:F34" si="1">LEN(E2)-LEN(SUBSTITUTE(E2,"(",""))
+      <c r="F2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G34" si="1">LEN(F2)-LEN(SUBSTITUTE(F2,"(",""))
 </f>
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="1" t="s">
-        <v>294</v>
+      <c r="I2" s="25"/>
+      <c r="J2" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" s="2">
+        <v>298</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="2">
+        <v>310</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="1" t="s">
-        <v>312</v>
+      <c r="I6" s="28"/>
+      <c r="J6" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="2">
+        <v>318</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="2">
+        <v>303</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="1" t="s">
-        <v>318</v>
+      <c r="I8" s="28"/>
+      <c r="J8" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="2">
+        <v>310</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="1" t="s">
-        <v>321</v>
+      <c r="I9" s="25"/>
+      <c r="J9" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="2">
+        <v>310</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="1" t="s">
-        <v>324</v>
+      <c r="I10" s="25"/>
+      <c r="J10" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="2">
+        <v>333</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="2">
+        <v>336</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="28"/>
       <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F13" s="2">
+        <v>338</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="28"/>
       <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F14" s="2">
+        <v>310</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="28"/>
       <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="2">
+        <v>310</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="1" t="s">
-        <v>335</v>
+      <c r="I15" s="25"/>
+      <c r="J15" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F16" s="2">
+        <v>310</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="1" t="s">
-        <v>338</v>
+      <c r="I16" s="25"/>
+      <c r="J16" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="2">
+        <v>310</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="1" t="s">
-        <v>341</v>
+      <c r="I17" s="25"/>
+      <c r="J17" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F18" s="2">
+        <v>354</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>344</v>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="2">
+        <v>303</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="1" t="s">
-        <v>348</v>
+      <c r="I19" s="25"/>
+      <c r="J19" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>306</v>
+        <v>362</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F20" s="2">
+        <v>310</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" s="2">
+        <v>364</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F22" s="2">
+        <v>365</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F23" s="2">
+        <v>310</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H23" s="25"/>
       <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F24" s="2">
+        <v>369</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="28"/>
       <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="2">
+        <v>371</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="28"/>
       <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F26" s="2">
+        <v>310</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="1" t="s">
-        <v>362</v>
+      <c r="I26" s="25"/>
+      <c r="J26" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F27" s="2">
+        <v>377</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="28"/>
       <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F28" s="2">
+        <v>310</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="25"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F29" s="2">
+        <v>303</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H30" s="25"/>
       <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>306</v>
+        <v>387</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="E31" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="28"/>
       <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="E32" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="28"/>
       <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E33" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="1" t="s">
-        <v>373</v>
+      <c r="I33" s="28"/>
+      <c r="J33" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="E34" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="1" t="s">
-        <v>375</v>
+      <c r="I34" s="28"/>
+      <c r="J34" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
-    <hyperlink r:id="rId21" ref="D22"/>
-    <hyperlink r:id="rId22" ref="D23"/>
-    <hyperlink r:id="rId23" ref="D24"/>
-    <hyperlink r:id="rId24" ref="D25"/>
-    <hyperlink r:id="rId25" ref="D26"/>
-    <hyperlink r:id="rId26" ref="D27"/>
-    <hyperlink r:id="rId27" ref="D28"/>
-    <hyperlink r:id="rId28" ref="D29"/>
-    <hyperlink r:id="rId29" ref="D30"/>
-    <hyperlink r:id="rId30" ref="D31"/>
-    <hyperlink r:id="rId31" ref="D32"/>
-    <hyperlink r:id="rId32" ref="D33"/>
-    <hyperlink r:id="rId33" ref="D34"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="E7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+    <hyperlink r:id="rId17" ref="E18"/>
+    <hyperlink r:id="rId18" ref="E19"/>
+    <hyperlink r:id="rId19" ref="E20"/>
+    <hyperlink r:id="rId20" ref="E21"/>
+    <hyperlink r:id="rId21" ref="E22"/>
+    <hyperlink r:id="rId22" ref="E23"/>
+    <hyperlink r:id="rId23" ref="E24"/>
+    <hyperlink r:id="rId24" ref="E25"/>
+    <hyperlink r:id="rId25" ref="E26"/>
+    <hyperlink r:id="rId26" ref="E27"/>
+    <hyperlink r:id="rId27" ref="E28"/>
+    <hyperlink r:id="rId28" ref="E29"/>
+    <hyperlink r:id="rId29" ref="E30"/>
+    <hyperlink r:id="rId30" ref="E31"/>
+    <hyperlink r:id="rId31" ref="E32"/>
+    <hyperlink r:id="rId32" ref="E33"/>
+    <hyperlink r:id="rId33" ref="E34"/>
   </hyperlinks>
   <drawing r:id="rId34"/>
 </worksheet>
@@ -9130,57 +9292,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B2" s="5">
         <v>0.0</v>
@@ -9195,7 +9357,7 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G2" s="5">
         <v>0.0</v>
@@ -9210,16 +9372,16 @@
         <v>1.0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L2" s="5">
         <v>2015.0</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" ref="O2:O7" si="1">LEN(N2)-LEN(SUBSTITUTE(N2,"(",""))
@@ -9232,7 +9394,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
@@ -9247,7 +9409,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G3" s="5">
         <v>0.0</v>
@@ -9262,16 +9424,16 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L3" s="5">
         <v>2017.0</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="1"/>
@@ -9283,7 +9445,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B4" s="5">
         <v>0.0</v>
@@ -9298,7 +9460,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G4" s="5">
         <v>0.0</v>
@@ -9313,16 +9475,16 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L4" s="5">
         <v>2017.0</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="1"/>
@@ -9334,7 +9496,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B5" s="5">
         <v>0.0</v>
@@ -9349,7 +9511,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G5" s="5">
         <v>1.0</v>
@@ -9364,16 +9526,16 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L5" s="5">
         <v>2015.0</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="1"/>
@@ -9385,7 +9547,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B6" s="5">
         <v>0.0</v>
@@ -9400,7 +9562,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G6" s="5">
         <v>0.0</v>
@@ -9415,16 +9577,16 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L6" s="5">
         <v>2016.0</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="1"/>
@@ -9436,7 +9598,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="B7" s="5">
         <v>0.0</v>
@@ -9451,7 +9613,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G7" s="5">
         <v>0.0</v>
@@ -9466,16 +9628,16 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L7" s="5">
         <v>2015.0</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="1"/>
@@ -9487,7 +9649,7 @@
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="5" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="B8" s="5">
         <v>0.0</v>
@@ -9502,7 +9664,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G8" s="5">
         <v>0.0</v>
@@ -9517,7 +9679,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L8" s="5">
         <v>2017.0</v>
@@ -9531,7 +9693,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B9" s="5">
         <v>0.0</v>
@@ -9546,7 +9708,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G9" s="5">
         <v>1.0</v>
@@ -9561,16 +9723,16 @@
         <v>1.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L9" s="5">
         <v>2019.0</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ref="O9:O10" si="2">LEN(N9)-LEN(SUBSTITUTE(N9,"(",""))
@@ -9583,46 +9745,46 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="L10" s="5">
         <v>2014.0</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="2"/>
@@ -9634,7 +9796,7 @@
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="5" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B11" s="5">
         <v>0.0</v>
@@ -9649,7 +9811,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G11" s="5">
         <v>0.0</v>
@@ -9664,7 +9826,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L11" s="5">
         <v>2018.0</v>
@@ -9678,7 +9840,7 @@
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="5" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B12" s="5">
         <v>0.0</v>
@@ -9693,7 +9855,7 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G12" s="5">
         <v>0.0</v>
@@ -9708,7 +9870,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L12" s="5">
         <v>2018.0</v>
@@ -9722,7 +9884,7 @@
     </row>
     <row r="13" hidden="1">
       <c r="A13" s="5" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B13" s="5">
         <v>0.0</v>
@@ -9737,7 +9899,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G13" s="5">
         <v>0.0</v>
@@ -9752,7 +9914,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L13" s="5">
         <v>2018.0</v>
@@ -9766,7 +9928,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B14" s="5">
         <v>0.0</v>
@@ -9781,7 +9943,7 @@
         <v>1.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G14" s="5">
         <v>1.0</v>
@@ -9796,16 +9958,16 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L14" s="5">
         <v>2017.0</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ref="O14:O15" si="3">LEN(N14)-LEN(SUBSTITUTE(N14,"(",""))
@@ -9818,7 +9980,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B15" s="5">
         <v>1.0</v>
@@ -9833,7 +9995,7 @@
         <v>1.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G15" s="5">
         <v>0.0</v>
@@ -9848,16 +10010,16 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="L15" s="5">
         <v>2017.0</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="3"/>
@@ -9869,7 +10031,7 @@
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="5" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B16" s="5">
         <v>1.0</v>
@@ -9884,7 +10046,7 @@
         <v>0.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G16" s="5">
         <v>0.0</v>
@@ -9899,7 +10061,7 @@
         <v>1.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L16" s="5">
         <v>2018.0</v>
@@ -9913,7 +10075,7 @@
     </row>
     <row r="17" hidden="1">
       <c r="A17" s="5" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B17" s="5">
         <v>0.0</v>
@@ -9928,7 +10090,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G17" s="5">
         <v>0.0</v>
@@ -9943,7 +10105,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L17" s="5">
         <v>2019.0</v>
@@ -9957,7 +10119,7 @@
     </row>
     <row r="18" hidden="1">
       <c r="A18" s="5" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B18" s="5">
         <v>0.0</v>
@@ -9972,7 +10134,7 @@
         <v>1.0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G18" s="5">
         <v>0.0</v>
@@ -9987,7 +10149,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L18" s="5">
         <v>2019.0</v>
@@ -10001,7 +10163,7 @@
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="5" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B19" s="5">
         <v>0.0</v>
@@ -10016,7 +10178,7 @@
         <v>1.0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G19" s="5">
         <v>0.0</v>
@@ -10031,7 +10193,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L19" s="5">
         <v>2020.0</v>
@@ -10045,7 +10207,7 @@
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="5" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B20" s="5">
         <v>0.0</v>
@@ -10060,7 +10222,7 @@
         <v>0.0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G20" s="5">
         <v>0.0</v>
@@ -10075,7 +10237,7 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L20" s="5">
         <v>2021.0</v>
@@ -10089,7 +10251,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B21" s="5">
         <v>1.0</v>
@@ -10104,7 +10266,7 @@
         <v>1.0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G21" s="5">
         <v>0.0</v>
@@ -10119,16 +10281,16 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L21" s="5">
         <v>2019.0</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="O21" s="5">
         <f>LEN(N21)-LEN(SUBSTITUTE(N21,"(",""))
@@ -10141,7 +10303,7 @@
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="5" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B22" s="5">
         <v>0.0</v>
@@ -10156,7 +10318,7 @@
         <v>1.0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G22" s="5">
         <v>0.0</v>
@@ -10171,7 +10333,7 @@
         <v>0.0</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L22" s="5">
         <v>2021.0</v>
@@ -10185,7 +10347,7 @@
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="5" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B23" s="5">
         <v>1.0</v>
@@ -10200,7 +10362,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G23" s="5">
         <v>1.0</v>
@@ -10215,7 +10377,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L23" s="5">
         <v>2021.0</v>
@@ -10229,7 +10391,7 @@
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="5" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B24" s="5">
         <v>1.0</v>
@@ -10244,7 +10406,7 @@
         <v>0.0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G24" s="5">
         <v>0.0</v>
@@ -10259,7 +10421,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L24" s="5">
         <v>2016.0</v>
@@ -10273,7 +10435,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="B25" s="5">
         <v>0.0</v>
@@ -10288,7 +10450,7 @@
         <v>0.0</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G25" s="5">
         <v>0.0</v>
@@ -10303,16 +10465,16 @@
         <v>0.0</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L25" s="5">
         <v>2017.0</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="O25" s="5">
         <f>LEN(N25)-LEN(SUBSTITUTE(N25,"(",""))
@@ -10325,7 +10487,7 @@
     </row>
     <row r="26" hidden="1">
       <c r="A26" s="5" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B26" s="5">
         <v>1.0</v>
@@ -10340,7 +10502,7 @@
         <v>1.0</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G26" s="5">
         <v>1.0</v>
@@ -10355,7 +10517,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L26" s="5">
         <v>2019.0</v>
@@ -10369,7 +10531,7 @@
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="5" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B27" s="5">
         <v>1.0</v>
@@ -10384,7 +10546,7 @@
         <v>1.0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G27" s="5">
         <v>0.0</v>
@@ -10399,7 +10561,7 @@
         <v>0.0</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L27" s="5">
         <v>2019.0</v>
@@ -10413,7 +10575,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B28" s="5">
         <v>1.0</v>
@@ -10428,7 +10590,7 @@
         <v>0.0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G28" s="5">
         <v>0.0</v>
@@ -10443,16 +10605,16 @@
         <v>0.0</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L28" s="5">
         <v>2017.0</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="O28" s="5">
         <f>LEN(N28)-LEN(SUBSTITUTE(N28,"(",""))
@@ -10465,7 +10627,7 @@
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="5" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B29" s="5">
         <v>1.0</v>
@@ -10480,7 +10642,7 @@
         <v>0.0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G29" s="5">
         <v>0.0</v>
@@ -10495,7 +10657,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="L29" s="5">
         <v>2020.0</v>
@@ -10509,7 +10671,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="B30" s="5">
         <v>1.0</v>
@@ -10524,7 +10686,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G30" s="5">
         <v>0.0</v>
@@ -10539,16 +10701,16 @@
         <v>0.0</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L30" s="5">
         <v>2019.0</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" ref="O30:O36" si="4">LEN(N30)-LEN(SUBSTITUTE(N30,"(",""))
@@ -10561,7 +10723,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B31" s="5">
         <v>0.0</v>
@@ -10576,7 +10738,7 @@
         <v>0.0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G31" s="5">
         <v>0.0</v>
@@ -10591,16 +10753,16 @@
         <v>0.0</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L31" s="5">
         <v>2018.0</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="4"/>
@@ -10612,7 +10774,7 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B32" s="5">
         <v>1.0</v>
@@ -10627,7 +10789,7 @@
         <v>0.0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G32" s="5">
         <v>0.0</v>
@@ -10642,16 +10804,16 @@
         <v>0.0</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L32" s="5">
         <v>2016.0</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="4"/>
@@ -10663,7 +10825,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B33" s="5">
         <v>1.0</v>
@@ -10678,7 +10840,7 @@
         <v>1.0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G33" s="5">
         <v>0.0</v>
@@ -10693,16 +10855,16 @@
         <v>0.0</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L33" s="5">
         <v>2018.0</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="4"/>
@@ -10714,7 +10876,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B34" s="5">
         <v>1.0</v>
@@ -10729,7 +10891,7 @@
         <v>1.0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G34" s="5">
         <v>1.0</v>
@@ -10744,16 +10906,16 @@
         <v>0.0</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L34" s="5">
         <v>2017.0</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="4"/>
@@ -10765,7 +10927,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B35" s="5">
         <v>1.0</v>
@@ -10780,7 +10942,7 @@
         <v>1.0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G35" s="5">
         <v>0.0</v>
@@ -10795,16 +10957,16 @@
         <v>0.0</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L35" s="5">
         <v>2017.0</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
@@ -10816,7 +10978,7 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B36" s="5">
         <v>1.0</v>
@@ -10831,7 +10993,7 @@
         <v>0.0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G36" s="5">
         <v>0.0</v>
@@ -10846,16 +11008,16 @@
         <v>0.0</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L36" s="5">
         <v>2018.0</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="4"/>
@@ -10867,7 +11029,7 @@
     </row>
     <row r="37" hidden="1">
       <c r="A37" s="5" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="B37" s="5">
         <v>1.0</v>
@@ -10882,7 +11044,7 @@
         <v>1.0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G37" s="5">
         <v>0.0</v>
@@ -10897,7 +11059,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L37" s="5">
         <v>2018.0</v>
@@ -10911,7 +11073,7 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B38" s="5">
         <v>0.0</v>
@@ -10926,7 +11088,7 @@
         <v>1.0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G38" s="5">
         <v>0.0</v>
@@ -10941,16 +11103,16 @@
         <v>0.0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L38" s="5">
         <v>2018.0</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" ref="O38:O39" si="5">LEN(N38)-LEN(SUBSTITUTE(N38,"(",""))
@@ -10963,7 +11125,7 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B39" s="5">
         <v>0.0</v>
@@ -10978,7 +11140,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G39" s="5">
         <v>0.0</v>
@@ -10993,16 +11155,16 @@
         <v>0.0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L39" s="5">
         <v>2020.0</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="5"/>
@@ -11014,7 +11176,7 @@
     </row>
     <row r="40" hidden="1">
       <c r="A40" s="5" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B40" s="5">
         <v>1.0</v>
@@ -11029,7 +11191,7 @@
         <v>1.0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G40" s="5">
         <v>0.0</v>
@@ -11044,7 +11206,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L40" s="5">
         <v>2019.0</v>
@@ -11058,7 +11220,7 @@
     </row>
     <row r="41" hidden="1">
       <c r="A41" s="5" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="B41" s="5">
         <v>1.0</v>
@@ -11073,7 +11235,7 @@
         <v>1.0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G41" s="5">
         <v>0.0</v>
@@ -11088,7 +11250,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L41" s="5">
         <v>2019.0</v>
@@ -11102,7 +11264,7 @@
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="5" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B42" s="5">
         <v>1.0</v>
@@ -11117,7 +11279,7 @@
         <v>1.0</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G42" s="5">
         <v>0.0</v>
@@ -11132,7 +11294,7 @@
         <v>0.0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L42" s="5">
         <v>2019.0</v>
@@ -11146,7 +11308,7 @@
     </row>
     <row r="43" hidden="1">
       <c r="A43" s="5" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B43" s="5">
         <v>1.0</v>
@@ -11161,7 +11323,7 @@
         <v>1.0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G43" s="5">
         <v>0.0</v>
@@ -11176,7 +11338,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L43" s="5">
         <v>2019.0</v>
@@ -11190,7 +11352,7 @@
     </row>
     <row r="44" hidden="1">
       <c r="A44" s="5" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B44" s="5">
         <v>1.0</v>
@@ -11205,7 +11367,7 @@
         <v>1.0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G44" s="5">
         <v>0.0</v>
@@ -11220,7 +11382,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L44" s="5">
         <v>2019.0</v>
@@ -11234,7 +11396,7 @@
     </row>
     <row r="45" hidden="1">
       <c r="A45" s="5" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B45" s="5">
         <v>1.0</v>
@@ -11249,7 +11411,7 @@
         <v>1.0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G45" s="5">
         <v>0.0</v>
@@ -11264,7 +11426,7 @@
         <v>0.0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L45" s="5">
         <v>2019.0</v>
@@ -11278,7 +11440,7 @@
     </row>
     <row r="46" hidden="1">
       <c r="A46" s="5" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B46" s="5">
         <v>1.0</v>
@@ -11293,7 +11455,7 @@
         <v>1.0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G46" s="5">
         <v>0.0</v>
@@ -11308,7 +11470,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L46" s="5">
         <v>2020.0</v>
@@ -11322,7 +11484,7 @@
     </row>
     <row r="47" hidden="1">
       <c r="A47" s="5" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B47" s="5">
         <v>1.0</v>
@@ -11337,7 +11499,7 @@
         <v>1.0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G47" s="5">
         <v>0.0</v>
@@ -11352,7 +11514,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L47" s="5">
         <v>2020.0</v>
@@ -11366,7 +11528,7 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B48" s="5">
         <v>1.0</v>
@@ -11381,7 +11543,7 @@
         <v>1.0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G48" s="5">
         <v>0.0</v>
@@ -11396,16 +11558,16 @@
         <v>0.0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L48" s="5">
         <v>2019.0</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="O48" s="5">
         <f t="shared" ref="O48:O49" si="6">LEN(N48)-LEN(SUBSTITUTE(N48,"(",""))
@@ -11418,7 +11580,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B49" s="5">
         <v>0.0</v>
@@ -11433,7 +11595,7 @@
         <v>1.0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G49" s="5">
         <v>0.0</v>
@@ -11448,16 +11610,16 @@
         <v>0.0</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L49" s="5">
         <v>2019.0</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="O49" s="5">
         <f t="shared" si="6"/>
@@ -11469,7 +11631,7 @@
     </row>
     <row r="50" hidden="1">
       <c r="A50" s="5" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B50" s="5">
         <v>1.0</v>
@@ -11484,7 +11646,7 @@
         <v>1.0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G50" s="5">
         <v>0.0</v>
@@ -11499,7 +11661,7 @@
         <v>0.0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L50" s="5">
         <v>2021.0</v>
@@ -11513,7 +11675,7 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B51" s="5">
         <v>1.0</v>
@@ -11528,7 +11690,7 @@
         <v>0.0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G51" s="5">
         <v>0.0</v>
@@ -11543,16 +11705,16 @@
         <v>0.0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="L51" s="5">
         <v>2020.0</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="O51" s="5">
         <f>LEN(N51)-LEN(SUBSTITUTE(N51,"(",""))
@@ -11565,7 +11727,7 @@
     </row>
     <row r="52" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B52" s="5">
         <v>1.0</v>
@@ -11580,7 +11742,7 @@
         <v>1.0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G52" s="5">
         <v>0.0</v>
@@ -11595,7 +11757,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L52" s="5">
         <v>2021.0</v>
@@ -11609,7 +11771,7 @@
     </row>
     <row r="53" hidden="1">
       <c r="A53" s="5" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B53" s="5">
         <v>1.0</v>
@@ -11624,7 +11786,7 @@
         <v>1.0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G53" s="5">
         <v>1.0</v>
@@ -11639,7 +11801,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L53" s="5">
         <v>2021.0</v>
@@ -11653,7 +11815,7 @@
     </row>
     <row r="54" hidden="1">
       <c r="A54" s="5" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B54" s="5">
         <v>0.0</v>
@@ -11668,7 +11830,7 @@
         <v>1.0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G54" s="5">
         <v>0.0</v>
@@ -11683,7 +11845,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L54" s="5">
         <v>2018.0</v>
@@ -11697,7 +11859,7 @@
     </row>
     <row r="55" hidden="1">
       <c r="A55" s="5" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B55" s="5">
         <v>0.0</v>
@@ -11712,7 +11874,7 @@
         <v>1.0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G55" s="5">
         <v>0.0</v>
@@ -11727,7 +11889,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L55" s="5">
         <v>2018.0</v>
@@ -11741,7 +11903,7 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="B56" s="5">
         <v>1.0</v>
@@ -11756,7 +11918,7 @@
         <v>0.0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G56" s="5">
         <v>0.0</v>
@@ -11771,16 +11933,16 @@
         <v>0.0</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="L56" s="5">
         <v>2021.0</v>
       </c>
       <c r="M56" s="27" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="O56" s="5">
         <f t="shared" ref="O56:O58" si="7">LEN(N56)-LEN(SUBSTITUTE(N56,"(",""))
@@ -11793,7 +11955,7 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="B57" s="5">
         <v>1.0</v>
@@ -11808,7 +11970,7 @@
         <v>0.0</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G57" s="5">
         <v>0.0</v>
@@ -11823,16 +11985,16 @@
         <v>0.0</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L57" s="5">
         <v>2019.0</v>
       </c>
       <c r="M57" s="27" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="O57" s="5">
         <f t="shared" si="7"/>
@@ -11844,7 +12006,7 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="B58" s="5">
         <v>1.0</v>
@@ -11859,7 +12021,7 @@
         <v>1.0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G58" s="5">
         <v>0.0</v>
@@ -11874,16 +12036,16 @@
         <v>0.0</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L58" s="5">
         <v>2020.0</v>
       </c>
       <c r="M58" s="27" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="O58" s="5">
         <f t="shared" si="7"/>
@@ -11895,7 +12057,7 @@
     </row>
     <row r="59" hidden="1">
       <c r="A59" s="5" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="B59" s="5">
         <v>0.0</v>
@@ -11910,7 +12072,7 @@
         <v>1.0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G59" s="5">
         <v>0.0</v>
@@ -11925,7 +12087,7 @@
         <v>0.0</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L59" s="5">
         <v>2021.0</v>
@@ -11939,7 +12101,7 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="B60" s="5">
         <v>0.0</v>
@@ -11954,7 +12116,7 @@
         <v>1.0</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G60" s="5">
         <v>0.0</v>
@@ -11969,16 +12131,16 @@
         <v>0.0</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="L60" s="5">
         <v>2019.0</v>
       </c>
       <c r="M60" s="27" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="O60" s="5">
         <f>LEN(N60)-LEN(SUBSTITUTE(N60,"(",""))
@@ -11991,7 +12153,7 @@
     </row>
     <row r="61" hidden="1">
       <c r="A61" s="5" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="B61" s="5">
         <v>1.0</v>
@@ -12006,7 +12168,7 @@
         <v>0.0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G61" s="5">
         <v>0.0</v>
@@ -12021,7 +12183,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="L61" s="5">
         <v>2021.0</v>
@@ -12035,7 +12197,7 @@
     </row>
     <row r="62" hidden="1">
       <c r="A62" s="5" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="B62" s="5">
         <v>1.0</v>
@@ -12050,7 +12212,7 @@
         <v>0.0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G62" s="5">
         <v>0.0</v>
@@ -12065,7 +12227,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="L62" s="5">
         <v>2021.0</v>
@@ -12079,7 +12241,7 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="B63" s="5">
         <v>1.0</v>
@@ -12107,16 +12269,16 @@
         <v>0.0</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="L63" s="5">
         <v>2019.0</v>
       </c>
       <c r="M63" s="27" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="O63" s="5">
         <f t="shared" ref="O63:O75" si="8">LEN(N63)-LEN(SUBSTITUTE(N63,"(",""))
@@ -12129,7 +12291,7 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="B64" s="5">
         <v>0.0</v>
@@ -12144,7 +12306,7 @@
         <v>1.0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G64" s="5">
         <v>0.0</v>
@@ -12159,16 +12321,16 @@
         <v>0.0</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L64" s="5">
         <v>2021.0</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="O64" s="5">
         <f t="shared" si="8"/>
@@ -12180,7 +12342,7 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="B65" s="5">
         <v>0.0</v>
@@ -12208,16 +12370,16 @@
         <v>0.0</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L65" s="5">
         <v>2019.0</v>
       </c>
       <c r="M65" s="27" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="O65" s="5">
         <f t="shared" si="8"/>
@@ -12229,7 +12391,7 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B66" s="5">
         <v>1.0</v>
@@ -12244,7 +12406,7 @@
         <v>1.0</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G66" s="5">
         <v>0.0</v>
@@ -12259,16 +12421,16 @@
         <v>0.0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="L66" s="5">
         <v>2019.0</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="O66" s="5">
         <f t="shared" si="8"/>
@@ -12280,7 +12442,7 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="B67" s="5">
         <v>0.0</v>
@@ -12295,7 +12457,7 @@
         <v>1.0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G67" s="5">
         <v>0.0</v>
@@ -12310,13 +12472,13 @@
         <v>0.0</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L67" s="5">
         <v>2021.0</v>
       </c>
       <c r="M67" s="27" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>56</v>
@@ -12331,7 +12493,7 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="B68" s="5">
         <v>1.0</v>
@@ -12346,7 +12508,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G68" s="5">
         <v>0.0</v>
@@ -12361,13 +12523,13 @@
         <v>0.0</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L68" s="5">
         <v>2018.0</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>81</v>
@@ -12382,7 +12544,7 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B69" s="5">
         <v>1.0</v>
@@ -12397,7 +12559,7 @@
         <v>1.0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G69" s="5">
         <v>0.0</v>
@@ -12412,13 +12574,13 @@
         <v>0.0</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L69" s="5">
         <v>2020.0</v>
       </c>
       <c r="M69" s="27" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>56</v>
@@ -12433,7 +12595,7 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="B70" s="5">
         <v>1.0</v>
@@ -12448,7 +12610,7 @@
         <v>1.0</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G70" s="5">
         <v>0.0</v>
@@ -12463,13 +12625,13 @@
         <v>0.0</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="L70" s="5">
         <v>2020.0</v>
       </c>
       <c r="M70" s="27" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>81</v>
@@ -12484,7 +12646,7 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="B71" s="5">
         <v>1.0</v>
@@ -12499,7 +12661,7 @@
         <v>1.0</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G71" s="5">
         <v>0.0</v>
@@ -12514,13 +12676,13 @@
         <v>0.0</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L71" s="5">
         <v>2021.0</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>81</v>
@@ -12535,7 +12697,7 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="B72" s="5">
         <v>0.0</v>
@@ -12550,7 +12712,7 @@
         <v>1.0</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G72" s="5">
         <v>0.0</v>
@@ -12565,13 +12727,13 @@
         <v>0.0</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L72" s="5">
         <v>2018.0</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>101</v>
@@ -12586,7 +12748,7 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="B73" s="5">
         <v>0.0</v>
@@ -12601,7 +12763,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="G73" s="5">
         <v>0.0</v>
@@ -12616,13 +12778,13 @@
         <v>0.0</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L73" s="5">
         <v>2018.0</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>101</v>
@@ -12637,7 +12799,7 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="B74" s="5">
         <v>1.0</v>
@@ -12652,7 +12814,7 @@
         <v>0.0</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G74" s="5">
         <v>0.0</v>
@@ -12667,13 +12829,13 @@
         <v>0.0</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="L74" s="5">
         <v>2020.0</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>66</v>
@@ -12688,7 +12850,7 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B75" s="5">
         <v>0.0</v>
@@ -12703,7 +12865,7 @@
         <v>1.0</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G75" s="5">
         <v>0.0</v>
@@ -12718,13 +12880,13 @@
         <v>0.0</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="L75" s="5">
         <v>2016.0</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>101</v>
@@ -12861,33 +13023,33 @@
         <v>282</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1">
         <v>99.51</v>
@@ -12902,7 +13064,7 @@
         <v>0.45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -12910,10 +13072,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1">
         <v>99.35</v>
@@ -12928,7 +13090,7 @@
         <v>45.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
@@ -12936,10 +13098,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1">
         <v>99.4</v>
@@ -12954,7 +13116,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>41</v>
@@ -12962,10 +13124,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C5" s="1">
         <v>99.4</v>
@@ -12980,7 +13142,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -12988,10 +13150,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1">
         <v>99.4</v>
@@ -13006,7 +13168,7 @@
         <v>0.6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>41</v>
@@ -13014,10 +13176,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C7" s="1">
         <v>99.4</v>
@@ -13032,7 +13194,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -13040,10 +13202,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C8" s="1">
         <v>99.43</v>
@@ -13058,7 +13220,7 @@
         <v>8.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -13066,10 +13228,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C9" s="1">
         <v>99.43</v>
@@ -13084,7 +13246,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
@@ -13092,10 +13254,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1">
         <v>99.43</v>
@@ -13110,7 +13272,7 @@
         <v>18.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>41</v>
@@ -13118,10 +13280,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1">
         <v>99.3</v>
@@ -13136,7 +13298,7 @@
         <v>3.71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>41</v>
@@ -13144,10 +13306,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1">
         <v>99.3</v>
@@ -13162,7 +13324,7 @@
         <v>5.7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>41</v>
@@ -13170,10 +13332,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1">
         <v>99.7</v>
@@ -13186,7 +13348,7 @@
         <v>8.95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -13194,10 +13356,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2">
@@ -13208,7 +13370,7 @@
         <v>3.6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -13216,10 +13378,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C15" s="1">
         <v>98.2</v>
@@ -13234,7 +13396,7 @@
         <v>3.93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>41</v>
@@ -13242,10 +13404,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C16" s="1">
         <v>98.2</v>
@@ -13260,7 +13422,7 @@
         <v>4.11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
@@ -13268,10 +13430,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2">
@@ -13284,7 +13446,7 @@
         <v>14.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>41</v>
@@ -13292,10 +13454,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C18" s="1">
         <v>99.2</v>
@@ -13310,7 +13472,7 @@
         <v>4.4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
@@ -13318,10 +13480,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C19" s="1">
         <v>99.2</v>
@@ -13336,7 +13498,7 @@
         <v>10.7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>41</v>
@@ -13344,10 +13506,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C20" s="1">
         <v>98.71</v>
@@ -13362,7 +13524,7 @@
         <v>21.7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>41</v>
@@ -13370,10 +13532,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C21" s="5">
         <v>98.71</v>
@@ -13388,7 +13550,7 @@
         <v>22.8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>41</v>
@@ -13396,10 +13558,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C22" s="5">
         <v>98.71</v>
@@ -13414,7 +13576,7 @@
         <v>30.5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>41</v>
@@ -13449,33 +13611,33 @@
         <v>282</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1">
         <v>80.95</v>
@@ -13490,7 +13652,7 @@
         <v>5.11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -13498,10 +13660,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1">
         <v>90.6</v>
@@ -13516,7 +13678,7 @@
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
@@ -13524,10 +13686,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C4" s="1">
         <v>90.6</v>
@@ -13542,7 +13704,7 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>41</v>
@@ -13550,10 +13712,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C5" s="1">
         <v>90.6</v>
@@ -13568,7 +13730,7 @@
         <v>6.6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -13576,10 +13738,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1">
         <v>90.6</v>
@@ -13594,7 +13756,7 @@
         <v>17.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>41</v>
@@ -13602,10 +13764,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C7" s="1">
         <v>94.84</v>
@@ -13620,7 +13782,7 @@
         <v>62.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -13628,10 +13790,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C8" s="1">
         <v>94.84</v>
@@ -13646,7 +13808,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -13654,10 +13816,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C9" s="1">
         <v>94.84</v>
@@ -13672,7 +13834,7 @@
         <v>17.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
@@ -13680,10 +13842,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C10" s="1">
         <v>94.84</v>
@@ -13698,7 +13860,7 @@
         <v>16.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>41</v>
@@ -13706,10 +13868,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1">
         <v>94.29</v>
@@ -13724,7 +13886,7 @@
         <v>19.04</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>41</v>
@@ -13732,10 +13894,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1">
         <v>94.29</v>
@@ -13750,7 +13912,7 @@
         <v>20.84</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>41</v>
@@ -13758,10 +13920,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1">
         <v>89.8</v>
@@ -13774,7 +13936,7 @@
         <v>22.0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -13782,10 +13944,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C14" s="1">
         <v>89.8</v>
@@ -13798,7 +13960,7 @@
         <v>15.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -13806,10 +13968,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C15" s="1">
         <v>92.0</v>
@@ -13824,7 +13986,7 @@
         <v>76.0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>41</v>
@@ -13832,10 +13994,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C16" s="1">
         <v>92.0</v>
@@ -13850,7 +14012,7 @@
         <v>20.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
@@ -13858,10 +14020,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C17" s="1">
         <v>92.0</v>
@@ -13876,7 +14038,7 @@
         <v>22.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>41</v>
@@ -13884,10 +14046,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C18" s="1">
         <v>92.11</v>
@@ -13902,7 +14064,7 @@
         <v>45.96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
@@ -13910,10 +14072,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C19" s="1">
         <v>92.11</v>
@@ -13928,7 +14090,7 @@
         <v>54.17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>41</v>
@@ -13936,10 +14098,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C20" s="1">
         <v>90.0</v>
@@ -13954,7 +14116,7 @@
         <v>35.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>41</v>
@@ -13962,10 +14124,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C21" s="1">
         <v>95.2</v>
@@ -13980,7 +14142,7 @@
         <v>4.9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>41</v>
@@ -13988,10 +14150,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C22" s="1">
         <v>95.2</v>
@@ -14006,7 +14168,7 @@
         <v>54.2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>41</v>
@@ -14014,10 +14176,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C23" s="1">
         <v>90.8</v>
@@ -14032,7 +14194,7 @@
         <v>14.5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>41</v>
@@ -14040,10 +14202,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C24" s="5">
         <v>90.8</v>
@@ -14058,7 +14220,7 @@
         <v>16.7</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>41</v>
@@ -14066,10 +14228,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C25" s="5">
         <v>90.8</v>
@@ -14084,7 +14246,7 @@
         <v>23.6</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>41</v>
@@ -14120,33 +14282,33 @@
         <v>282</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C2" s="1">
         <v>69.7</v>
@@ -14161,7 +14323,7 @@
         <v>67.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>41</v>
@@ -14169,10 +14331,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C3" s="1">
         <v>69.7</v>
@@ -14187,7 +14349,7 @@
         <v>23.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>41</v>
@@ -14195,10 +14357,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C4" s="1">
         <v>69.7</v>
@@ -14213,7 +14375,7 @@
         <v>28.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>41</v>
@@ -14221,10 +14383,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="2">
@@ -14235,7 +14397,7 @@
         <v>30.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -14243,10 +14405,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="2">
@@ -14257,7 +14419,7 @@
         <v>28.48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>41</v>
@@ -14265,10 +14427,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="2">
@@ -14279,7 +14441,7 @@
         <v>28.53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>41</v>
@@ -14287,10 +14449,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="2">
@@ -14301,7 +14463,7 @@
         <v>29.5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>41</v>
@@ -14309,10 +14471,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C9" s="1">
         <v>100.0</v>
@@ -14327,7 +14489,7 @@
         <v>47.6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
@@ -14335,10 +14497,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1">
         <v>100.0</v>
@@ -14353,7 +14515,7 @@
         <v>1.7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>41</v>
@@ -14361,10 +14523,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C11" s="1">
         <v>100.0</v>
@@ -14379,7 +14541,7 @@
         <v>3.1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>41</v>
@@ -14387,10 +14549,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="34"/>
@@ -14399,7 +14561,7 @@
         <v>72.1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>41</v>
@@ -14407,10 +14569,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C13" s="1">
         <v>100.0</v>
@@ -14425,7 +14587,7 @@
         <v>18.5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -14433,10 +14595,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C14" s="1">
         <v>100.0</v>
@@ -14451,7 +14613,7 @@
         <v>16.3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -14459,10 +14621,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C15" s="1">
         <v>100.0</v>
@@ -14477,7 +14639,7 @@
         <v>9.7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>41</v>
@@ -14485,10 +14647,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C16" s="1">
         <v>100.0</v>
@@ -14503,7 +14665,7 @@
         <v>3.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
@@ -14511,10 +14673,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C17" s="1">
         <v>100.0</v>
@@ -14529,7 +14691,7 @@
         <v>2.0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>41</v>
@@ -14537,10 +14699,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="C18" s="1">
         <v>76.7</v>
@@ -14555,7 +14717,7 @@
         <v>63.3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>41</v>
@@ -14563,10 +14725,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="C19" s="1">
         <v>76.7</v>
@@ -14581,7 +14743,7 @@
         <v>43.3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>41</v>
@@ -14589,10 +14751,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="C20" s="1">
         <v>80.4</v>
@@ -14607,7 +14769,7 @@
         <v>27.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>41</v>
@@ -14615,10 +14777,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C21" s="1">
         <v>78.0</v>
@@ -14633,7 +14795,7 @@
         <v>49.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>41</v>
@@ -14660,34 +14822,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -14711,34 +14873,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -14768,27 +14930,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="38" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -14798,10 +14960,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -14811,10 +14973,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -14824,10 +14986,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -14837,10 +14999,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -14850,10 +15012,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -14863,10 +15025,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -14876,10 +15038,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -14889,10 +15051,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -14902,10 +15064,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -14915,10 +15077,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -14928,10 +15090,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -14941,10 +15103,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14954,10 +15116,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
